--- a/Definicion y administracion de requerimientos de software/PDControldeasignaciones.xlsx
+++ b/Definicion y administracion de requerimientos de software/PDControldeasignaciones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/METFOR/METFOR/Definicion y administracion de requerimientos de software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielPena\Desktop\ProyectoRapicoop\Semana3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019714F0-4D37-6247-8A4F-DC2F56340397}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="5025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA 1" sheetId="1" r:id="rId1"/>
@@ -142,6 +141,9 @@
     <t>Rol</t>
   </si>
   <si>
+    <t>TAREA: ESTRATEGIA</t>
+  </si>
+  <si>
     <t>LD</t>
   </si>
   <si>
@@ -173,9 +175,6 @@
   </si>
   <si>
     <t>Revisión de la especificación de requerimientos del software</t>
-  </si>
-  <si>
-    <t>TAREA: Definición y administración de requerimientos de software</t>
   </si>
 </sst>
 </file>
@@ -185,7 +184,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="0" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -610,17 +609,17 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -629,10 +628,10 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,13 +643,13 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -669,124 +668,124 @@
     <xf numFmtId="1" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -941,7 +940,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1263,86 +1262,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62:J67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="17" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11.5" style="2"/>
+    <col min="5" max="5" width="32.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56"/>
-      <c r="B1" s="58" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45"/>
+      <c r="B1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="66" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="67"/>
-    </row>
-    <row r="4" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1350,23 +1349,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -1391,15 +1390,15 @@
       <c r="H7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-    </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
+    </row>
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>14</v>
@@ -1422,13 +1421,13 @@
       <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-    </row>
-    <row r="9" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+    </row>
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>15</v>
@@ -1449,13 +1448,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-    </row>
-    <row r="10" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+    </row>
+    <row r="10" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>19</v>
@@ -1476,13 +1475,13 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-    </row>
-    <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+    </row>
+    <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>16</v>
@@ -1503,16 +1502,16 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-    </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="34">
         <v>30</v>
@@ -1530,13 +1529,13 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-    </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+    </row>
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>17</v>
@@ -1557,16 +1556,16 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-    </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+    </row>
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="34">
         <v>15</v>
@@ -1584,11 +1583,11 @@
         <v>0.4375</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-    </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+    </row>
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>12</v>
       </c>
@@ -1611,11 +1610,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-    </row>
-    <row r="16" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+    </row>
+    <row r="16" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>29</v>
       </c>
@@ -1634,13 +1633,13 @@
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-    </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+    </row>
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>19</v>
@@ -1657,13 +1656,13 @@
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-    </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
+    </row>
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>16</v>
@@ -1680,13 +1679,13 @@
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-    </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>14</v>
@@ -1703,13 +1702,13 @@
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-    </row>
-    <row r="20" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>15</v>
@@ -1726,13 +1725,13 @@
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
-    </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>14</v>
@@ -1753,9 +1752,9 @@
       <c r="J21" s="40"/>
       <c r="K21" s="41"/>
     </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>15</v>
@@ -1776,9 +1775,9 @@
       <c r="J22" s="40"/>
       <c r="K22" s="41"/>
     </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>19</v>
@@ -1799,9 +1798,9 @@
       <c r="J23" s="40"/>
       <c r="K23" s="41"/>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>16</v>
@@ -1822,12 +1821,12 @@
       <c r="J24" s="40"/>
       <c r="K24" s="41"/>
     </row>
-    <row r="25" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="34">
         <v>15</v>
@@ -1841,13 +1840,13 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-    </row>
-    <row r="26" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>17</v>
@@ -1864,13 +1863,13 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-    </row>
-    <row r="27" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+    </row>
+    <row r="27" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>14</v>
@@ -1891,9 +1890,9 @@
       <c r="J27" s="40"/>
       <c r="K27" s="41"/>
     </row>
-    <row r="28" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>15</v>
@@ -1914,9 +1913,9 @@
       <c r="J28" s="40"/>
       <c r="K28" s="41"/>
     </row>
-    <row r="29" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>19</v>
@@ -1937,9 +1936,9 @@
       <c r="J29" s="40"/>
       <c r="K29" s="41"/>
     </row>
-    <row r="30" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>16</v>
@@ -1960,12 +1959,12 @@
       <c r="J30" s="40"/>
       <c r="K30" s="41"/>
     </row>
-    <row r="31" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="34">
         <v>10</v>
@@ -1983,9 +1982,9 @@
       <c r="J31" s="40"/>
       <c r="K31" s="41"/>
     </row>
-    <row r="32" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>17</v>
@@ -2006,9 +2005,9 @@
       <c r="J32" s="40"/>
       <c r="K32" s="41"/>
     </row>
-    <row r="33" spans="1:11" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>14</v>
@@ -2029,9 +2028,9 @@
       <c r="J33" s="40"/>
       <c r="K33" s="41"/>
     </row>
-    <row r="34" spans="1:11" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>15</v>
@@ -2052,9 +2051,9 @@
       <c r="J34" s="40"/>
       <c r="K34" s="41"/>
     </row>
-    <row r="35" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>19</v>
@@ -2075,9 +2074,9 @@
       <c r="J35" s="40"/>
       <c r="K35" s="41"/>
     </row>
-    <row r="36" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>16</v>
@@ -2098,12 +2097,12 @@
       <c r="J36" s="40"/>
       <c r="K36" s="41"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="34">
         <v>10</v>
@@ -2121,9 +2120,9 @@
       <c r="J37" s="40"/>
       <c r="K37" s="41"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>17</v>
@@ -2144,7 +2143,7 @@
       <c r="J38" s="40"/>
       <c r="K38" s="41"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
@@ -2167,7 +2166,7 @@
       <c r="J39" s="40"/>
       <c r="K39" s="41"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>30</v>
       </c>
@@ -2190,7 +2189,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="41"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>30</v>
       </c>
@@ -2213,7 +2212,7 @@
       <c r="J41" s="40"/>
       <c r="K41" s="41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>30</v>
       </c>
@@ -2236,12 +2235,12 @@
       <c r="J42" s="40"/>
       <c r="K42" s="41"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="34">
         <v>10</v>
@@ -2259,7 +2258,7 @@
       <c r="J43" s="40"/>
       <c r="K43" s="41"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>30</v>
       </c>
@@ -2282,7 +2281,7 @@
       <c r="J44" s="40"/>
       <c r="K44" s="41"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>31</v>
       </c>
@@ -2305,7 +2304,7 @@
       <c r="J45" s="40"/>
       <c r="K45" s="41"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>32</v>
       </c>
@@ -2328,7 +2327,7 @@
       <c r="J46" s="40"/>
       <c r="K46" s="41"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>32</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="J47" s="40"/>
       <c r="K47" s="41"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>32</v>
       </c>
@@ -2374,7 +2373,7 @@
       <c r="J48" s="40"/>
       <c r="K48" s="41"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>32</v>
       </c>
@@ -2397,12 +2396,12 @@
       <c r="J49" s="40"/>
       <c r="K49" s="41"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" s="34">
         <v>10</v>
@@ -2420,7 +2419,7 @@
       <c r="J50" s="40"/>
       <c r="K50" s="41"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>32</v>
       </c>
@@ -2443,7 +2442,7 @@
       <c r="J51" s="40"/>
       <c r="K51" s="41"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>33</v>
       </c>
@@ -2466,7 +2465,7 @@
       <c r="J52" s="40"/>
       <c r="K52" s="41"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>34</v>
       </c>
@@ -2485,11 +2484,11 @@
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
       <c r="H53" s="13"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="48"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="44"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
         <v>35</v>
       </c>
@@ -2508,11 +2507,11 @@
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="48"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="44"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="27" t="s">
         <v>28</v>
@@ -2534,17 +2533,17 @@
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="49"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="23"/>
       <c r="F61" s="24"/>
       <c r="G61" s="1" t="s">
@@ -2553,23 +2552,23 @@
       <c r="H61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="49" t="s">
+      <c r="I61" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="49"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J61" s="68"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="36">
         <v>8</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="63">
         <f>C8+C19+C21+C27+C33+C39+C46+C54</f>
         <v>115</v>
       </c>
-      <c r="D62" s="43"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="29"/>
       <c r="F62" s="30"/>
       <c r="G62" s="28" t="s">
@@ -2578,21 +2577,21 @@
       <c r="H62" s="36">
         <v>8</v>
       </c>
-      <c r="I62" s="42"/>
-      <c r="J62" s="43"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I62" s="63"/>
+      <c r="J62" s="64"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="36">
         <v>9</v>
       </c>
-      <c r="C63" s="42">
+      <c r="C63" s="63">
         <f>C9+C15+C20+C22+C28+C34+C40+C47+C53</f>
         <v>140</v>
       </c>
-      <c r="D63" s="43"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="29"/>
       <c r="F63" s="30"/>
       <c r="G63" s="28" t="s">
@@ -2601,22 +2600,22 @@
       <c r="H63" s="36">
         <v>9</v>
       </c>
-      <c r="I63" s="42"/>
-      <c r="J63" s="43"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="64"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B64" s="36">
         <v>8</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="63">
         <f>C13++C26+C32+C38++C44+C45+C51+C52</f>
         <v>95</v>
       </c>
-      <c r="D64" s="43"/>
+      <c r="D64" s="64"/>
       <c r="E64" s="29"/>
       <c r="F64" s="30"/>
       <c r="G64" s="28" t="s">
@@ -2625,22 +2624,22 @@
       <c r="H64" s="36">
         <v>8</v>
       </c>
-      <c r="I64" s="42"/>
-      <c r="J64" s="43"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="64"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B65" s="36">
         <v>7</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C65" s="63">
         <f>C50+C43+C37++C31+C25+C14+C12</f>
         <v>100</v>
       </c>
-      <c r="D65" s="43"/>
+      <c r="D65" s="64"/>
       <c r="E65" s="29"/>
       <c r="F65" s="30"/>
       <c r="G65" s="28" t="s">
@@ -2649,22 +2648,22 @@
       <c r="H65" s="36">
         <v>7</v>
       </c>
-      <c r="I65" s="42"/>
-      <c r="J65" s="43"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="64"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B66" s="36">
         <v>8</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="63">
         <f>C49+C42+C36+C30+C24+C18+C16+C11</f>
         <v>165</v>
       </c>
-      <c r="D66" s="43"/>
+      <c r="D66" s="64"/>
       <c r="E66" s="29"/>
       <c r="F66" s="31"/>
       <c r="G66" s="28" t="s">
@@ -2673,22 +2672,22 @@
       <c r="H66" s="36">
         <v>8</v>
       </c>
-      <c r="I66" s="42"/>
-      <c r="J66" s="43"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="64"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B67" s="36">
         <v>7</v>
       </c>
-      <c r="C67" s="42">
+      <c r="C67" s="63">
         <f>C48+C41+C35+C29+C23+C17+C10</f>
         <v>105</v>
       </c>
-      <c r="D67" s="43"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="29"/>
       <c r="F67" s="30"/>
       <c r="G67" s="32" t="s">
@@ -2697,11 +2696,11 @@
       <c r="H67" s="36">
         <v>7</v>
       </c>
-      <c r="I67" s="42"/>
-      <c r="J67" s="43"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="64"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -2714,7 +2713,7 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -2727,7 +2726,7 @@
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -2740,7 +2739,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2753,62 +2752,62 @@
       <c r="J71" s="18"/>
       <c r="K71" s="18"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K72" s="14"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K78" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E81" s="24"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D83" s="45"/>
+      <c r="C83" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="73"/>
       <c r="E83" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B84" s="36"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="43"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="64"/>
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
       <c r="G84" s="38"/>
@@ -2817,13 +2816,13 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B85" s="36"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="43"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="64"/>
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
       <c r="G85" s="38"/>
@@ -2832,13 +2831,13 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B86" s="36"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="43"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="64"/>
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
       <c r="G86" s="38"/>
@@ -2847,13 +2846,13 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B87" s="36"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="43"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="64"/>
       <c r="E87" s="36"/>
       <c r="F87" s="36"/>
       <c r="G87" s="38"/>
@@ -2862,13 +2861,13 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B88" s="36"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="43"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="64"/>
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
       <c r="G88" s="38"/>
@@ -2877,13 +2876,13 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B89" s="36"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="43"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="64"/>
       <c r="E89" s="37"/>
       <c r="F89" s="36"/>
       <c r="G89" s="38"/>
@@ -2894,17 +2893,26 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
     <mergeCell ref="I66:J66"/>
     <mergeCell ref="I67:J67"/>
     <mergeCell ref="C66:D66"/>
@@ -2921,26 +2929,17 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Definicion y administracion de requerimientos de software/PDControldeasignaciones.xlsx
+++ b/Definicion y administracion de requerimientos de software/PDControldeasignaciones.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielPena\Desktop\ProyectoRapicoop\Semana3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.ASUS-SANTIAGO\Desktop\Plantillas\METFOR\Definicion y administracion de requerimientos de software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="5025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10212" windowHeight="5028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SEMANA 1'!$A$7:$K$54</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -184,7 +184,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="0" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="166" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -609,17 +609,17 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="76">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -628,10 +628,10 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -643,13 +643,13 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -668,91 +668,120 @@
     <xf numFmtId="1" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,33 +789,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -940,7 +944,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1260,88 +1264,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62:J67"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="17" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="32.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="55" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1349,23 +1353,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+    <row r="5" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -1390,11 +1394,11 @@
       <c r="H7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
+      <c r="I7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -1403,7 +1407,7 @@
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>30</v>
       </c>
       <c r="D8" s="11">
@@ -1421,9 +1425,9 @@
       <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -1432,7 +1436,7 @@
       <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>30</v>
       </c>
       <c r="D9" s="11">
@@ -1447,10 +1451,12 @@
       <c r="G9" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -1459,7 +1465,7 @@
       <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>30</v>
       </c>
       <c r="D10" s="11">
@@ -1474,10 +1480,12 @@
       <c r="G10" s="12">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -1486,7 +1494,7 @@
       <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>30</v>
       </c>
       <c r="D11" s="11">
@@ -1501,10 +1509,12 @@
       <c r="G11" s="12">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -1513,7 +1523,7 @@
       <c r="B12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="33">
         <v>30</v>
       </c>
       <c r="D12" s="11">
@@ -1528,10 +1538,12 @@
       <c r="G12" s="12">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -1540,7 +1552,7 @@
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="33">
         <v>30</v>
       </c>
       <c r="D13" s="11">
@@ -1555,10 +1567,12 @@
       <c r="G13" s="12">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
@@ -1567,7 +1581,7 @@
       <c r="B14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>15</v>
       </c>
       <c r="D14" s="11">
@@ -1582,10 +1596,12 @@
       <c r="G14" s="12">
         <v>0.4375</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
@@ -1594,7 +1610,7 @@
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <v>20</v>
       </c>
       <c r="D15" s="11">
@@ -1609,19 +1625,21 @@
       <c r="G15" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="44"/>
-    </row>
-    <row r="16" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+    </row>
+    <row r="16" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <v>60</v>
       </c>
       <c r="D16" s="11">
@@ -1630,12 +1648,18 @@
       <c r="E16" s="12">
         <v>0.75</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
+      <c r="F16" s="11">
+        <v>43148</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -1644,7 +1668,7 @@
       <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <v>20</v>
       </c>
       <c r="D17" s="11">
@@ -1653,12 +1677,18 @@
       <c r="E17" s="12">
         <v>0.875</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
+      <c r="F17" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
@@ -1667,7 +1697,7 @@
       <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="33">
         <v>20</v>
       </c>
       <c r="D18" s="11">
@@ -1676,12 +1706,18 @@
       <c r="E18" s="12">
         <v>0.875</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
+      <c r="F18" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -1690,7 +1726,7 @@
       <c r="B19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="33">
         <v>20</v>
       </c>
       <c r="D19" s="11">
@@ -1699,12 +1735,18 @@
       <c r="E19" s="12">
         <v>0.875</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
+      <c r="F19" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -1713,7 +1755,7 @@
       <c r="B20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="33">
         <v>20</v>
       </c>
       <c r="D20" s="11">
@@ -1722,12 +1764,18 @@
       <c r="E20" s="12">
         <v>0.875</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
+      <c r="F20" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -1736,7 +1784,7 @@
       <c r="B21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="33">
         <v>15</v>
       </c>
       <c r="D21" s="11">
@@ -1745,12 +1793,18 @@
       <c r="E21" s="12">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
+      <c r="F21" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -1759,7 +1813,7 @@
       <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="33">
         <v>15</v>
       </c>
       <c r="D22" s="11">
@@ -1768,12 +1822,18 @@
       <c r="E22" s="12">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
+      <c r="F22" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -1782,7 +1842,7 @@
       <c r="B23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="33">
         <v>15</v>
       </c>
       <c r="D23" s="11">
@@ -1791,12 +1851,18 @@
       <c r="E23" s="12">
         <v>0.89583333333333304</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
+      <c r="F23" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -1805,7 +1871,7 @@
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="33">
         <v>15</v>
       </c>
       <c r="D24" s="11">
@@ -1814,12 +1880,18 @@
       <c r="E24" s="12">
         <v>0.89583333333333304</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
+      <c r="F24" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -1828,7 +1900,7 @@
       <c r="B25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="33">
         <v>15</v>
       </c>
       <c r="D25" s="11">
@@ -1837,12 +1909,18 @@
       <c r="E25" s="12">
         <v>0.89583333333333304</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="44"/>
+      <c r="F25" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -1851,7 +1929,7 @@
       <c r="B26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="33">
         <v>15</v>
       </c>
       <c r="D26" s="11">
@@ -1860,12 +1938,18 @@
       <c r="E26" s="12">
         <v>0.89583333333333304</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
+      <c r="F26" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -1874,7 +1958,7 @@
       <c r="B27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="33">
         <v>10</v>
       </c>
       <c r="D27" s="11">
@@ -1883,12 +1967,18 @@
       <c r="E27" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
+      <c r="F27" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
@@ -1897,7 +1987,7 @@
       <c r="B28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="33">
         <v>10</v>
       </c>
       <c r="D28" s="11">
@@ -1906,12 +1996,18 @@
       <c r="E28" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41"/>
+      <c r="F28" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="40"/>
     </row>
     <row r="29" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
@@ -1920,7 +2016,7 @@
       <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="33">
         <v>10</v>
       </c>
       <c r="D29" s="11">
@@ -1929,12 +2025,18 @@
       <c r="E29" s="12">
         <v>0.91666666666666696</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
+      <c r="F29" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
@@ -1943,7 +2045,7 @@
       <c r="B30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="33">
         <v>10</v>
       </c>
       <c r="D30" s="11">
@@ -1952,12 +2054,18 @@
       <c r="E30" s="12">
         <v>0.91666666666666696</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41"/>
+      <c r="F30" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
@@ -1966,7 +2074,7 @@
       <c r="B31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="33">
         <v>10</v>
       </c>
       <c r="D31" s="11">
@@ -1975,12 +2083,18 @@
       <c r="E31" s="12">
         <v>0.91666666666666696</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41"/>
+      <c r="F31" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
     </row>
     <row r="32" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
@@ -1989,7 +2103,7 @@
       <c r="B32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="33">
         <v>10</v>
       </c>
       <c r="D32" s="11">
@@ -1998,12 +2112,18 @@
       <c r="E32" s="12">
         <v>0.91666666666666696</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
+      <c r="F32" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="1:11" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
@@ -2012,7 +2132,7 @@
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="33">
         <v>10</v>
       </c>
       <c r="D33" s="11">
@@ -2021,12 +2141,18 @@
       <c r="E33" s="12">
         <v>0.92708333333333337</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="41"/>
+      <c r="F33" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="1:11" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
@@ -2035,7 +2161,7 @@
       <c r="B34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="33">
         <v>10</v>
       </c>
       <c r="D34" s="11">
@@ -2044,21 +2170,27 @@
       <c r="E34" s="12">
         <v>0.92708333333333337</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="41"/>
-    </row>
-    <row r="35" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
+    </row>
+    <row r="35" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="33">
         <v>10</v>
       </c>
       <c r="D35" s="11">
@@ -2067,21 +2199,27 @@
       <c r="E35" s="12">
         <v>0.92708333333333304</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
-    </row>
-    <row r="36" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0.92708333333333304</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
+    </row>
+    <row r="36" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="33">
         <v>10</v>
       </c>
       <c r="D36" s="11">
@@ -2090,21 +2228,27 @@
       <c r="E36" s="12">
         <v>0.92708333333333304</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="41"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F36" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0.92708333333333304</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="33">
         <v>10</v>
       </c>
       <c r="D37" s="11">
@@ -2113,21 +2257,27 @@
       <c r="E37" s="12">
         <v>0.92708333333333304</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="41"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F37" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0.92708333333333304</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="40"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="33">
         <v>10</v>
       </c>
       <c r="D38" s="11">
@@ -2136,21 +2286,27 @@
       <c r="E38" s="12">
         <v>0.92708333333333304</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="41"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F38" s="11">
+        <v>43151</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.92708333333333304</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="33">
         <v>10</v>
       </c>
       <c r="D39" s="11">
@@ -2159,21 +2315,27 @@
       <c r="E39" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="41"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F39" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="40"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="33">
         <v>10</v>
       </c>
       <c r="D40" s="11">
@@ -2182,21 +2344,27 @@
       <c r="E40" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="41"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F40" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="40"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="33">
         <v>10</v>
       </c>
       <c r="D41" s="11">
@@ -2205,21 +2373,27 @@
       <c r="E41" s="12">
         <v>0.79166666666666696</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F41" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="40"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="33">
         <v>10</v>
       </c>
       <c r="D42" s="11">
@@ -2228,21 +2402,27 @@
       <c r="E42" s="12">
         <v>0.79166666666666696</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="41"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F42" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="40"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="33">
         <v>10</v>
       </c>
       <c r="D43" s="11">
@@ -2251,21 +2431,27 @@
       <c r="E43" s="12">
         <v>0.79166666666666696</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="41"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F43" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="40"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="33">
         <v>10</v>
       </c>
       <c r="D44" s="11">
@@ -2274,21 +2460,27 @@
       <c r="E44" s="12">
         <v>0.79166666666666696</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="41"/>
-    </row>
-    <row r="45" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="F44" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="40"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="33">
         <v>5</v>
       </c>
       <c r="D45" s="11">
@@ -2297,21 +2489,27 @@
       <c r="E45" s="12">
         <v>0.79861111111111116</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="41"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F45" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="40"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="33">
         <v>10</v>
       </c>
       <c r="D46" s="11">
@@ -2320,21 +2518,27 @@
       <c r="E46" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="41"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F46" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="38"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="40"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="33">
         <v>10</v>
       </c>
       <c r="D47" s="11">
@@ -2343,21 +2547,27 @@
       <c r="E47" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="41"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F47" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="40"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="33">
         <v>10</v>
       </c>
       <c r="D48" s="11">
@@ -2366,21 +2576,27 @@
       <c r="E48" s="12">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="41"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F48" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="38"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="40"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="33">
         <v>10</v>
       </c>
       <c r="D49" s="11">
@@ -2389,21 +2605,27 @@
       <c r="E49" s="12">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="41"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F49" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="38"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="40"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="33">
         <v>10</v>
       </c>
       <c r="D50" s="11">
@@ -2412,21 +2634,27 @@
       <c r="E50" s="12">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="41"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F50" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="38"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="40"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="33">
         <v>10</v>
       </c>
       <c r="D51" s="11">
@@ -2435,21 +2663,27 @@
       <c r="E51" s="12">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="41"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F51" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="38"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="40"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="33">
         <v>5</v>
       </c>
       <c r="D52" s="11">
@@ -2458,21 +2692,27 @@
       <c r="E52" s="12">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="41"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F52" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="38"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="40"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="33">
         <v>15</v>
       </c>
       <c r="D53" s="11">
@@ -2481,21 +2721,27 @@
       <c r="E53" s="12">
         <v>0.86458333333333337</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="44"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F53" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="43"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="45"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="34">
+      <c r="C54" s="33">
         <v>10</v>
       </c>
       <c r="D54" s="11">
@@ -2504,19 +2750,25 @@
       <c r="E54" s="12">
         <v>0.875</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="44"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F54" s="11">
+        <v>43152</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="43"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="45"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="34">
         <f>SUM(C8:C54)</f>
         <v>720</v>
       </c>
@@ -2526,24 +2778,24 @@
       <c r="G59" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="35">
+      <c r="H59" s="34">
         <f>SUM(I62:J67)</f>
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="68"/>
+      <c r="D61" s="71"/>
       <c r="E61" s="23"/>
       <c r="F61" s="24"/>
       <c r="G61" s="1" t="s">
@@ -2552,155 +2804,167 @@
       <c r="H61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="68" t="s">
+      <c r="I61" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="68"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="36">
+      <c r="B62" s="74">
         <v>8</v>
       </c>
-      <c r="C62" s="63">
+      <c r="C62" s="72">
         <f>C8+C19+C21+C27+C33+C39+C46+C54</f>
         <v>115</v>
       </c>
-      <c r="D62" s="64"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="29"/>
       <c r="F62" s="30"/>
       <c r="G62" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="74">
         <v>8</v>
       </c>
-      <c r="I62" s="63"/>
-      <c r="J62" s="64"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I62" s="72">
+        <v>145</v>
+      </c>
+      <c r="J62" s="73"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="74">
         <v>9</v>
       </c>
-      <c r="C63" s="63">
+      <c r="C63" s="72">
         <f>C9+C15+C20+C22+C28+C34+C40+C47+C53</f>
         <v>140</v>
       </c>
-      <c r="D63" s="64"/>
+      <c r="D63" s="73"/>
       <c r="E63" s="29"/>
       <c r="F63" s="30"/>
       <c r="G63" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63" s="74">
         <v>9</v>
       </c>
-      <c r="I63" s="63"/>
-      <c r="J63" s="64"/>
+      <c r="I63" s="72">
+        <v>160</v>
+      </c>
+      <c r="J63" s="73"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="36">
+      <c r="B64" s="74">
         <v>8</v>
       </c>
-      <c r="C64" s="63">
+      <c r="C64" s="72">
         <f>C13++C26+C32+C38++C44+C45+C51+C52</f>
         <v>95</v>
       </c>
-      <c r="D64" s="64"/>
+      <c r="D64" s="73"/>
       <c r="E64" s="29"/>
       <c r="F64" s="30"/>
       <c r="G64" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64" s="74">
         <v>8</v>
       </c>
-      <c r="I64" s="63"/>
-      <c r="J64" s="64"/>
+      <c r="I64" s="72">
+        <v>102</v>
+      </c>
+      <c r="J64" s="73"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="36">
+      <c r="B65" s="74">
         <v>7</v>
       </c>
-      <c r="C65" s="63">
+      <c r="C65" s="72">
         <f>C50+C43+C37++C31+C25+C14+C12</f>
         <v>100</v>
       </c>
-      <c r="D65" s="64"/>
+      <c r="D65" s="73"/>
       <c r="E65" s="29"/>
       <c r="F65" s="30"/>
       <c r="G65" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H65" s="36">
+      <c r="H65" s="74">
         <v>7</v>
       </c>
-      <c r="I65" s="63"/>
-      <c r="J65" s="64"/>
+      <c r="I65" s="72">
+        <v>130</v>
+      </c>
+      <c r="J65" s="73"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="36">
+      <c r="B66" s="74">
         <v>8</v>
       </c>
-      <c r="C66" s="63">
+      <c r="C66" s="72">
         <f>C49+C42+C36+C30+C24+C18+C16+C11</f>
         <v>165</v>
       </c>
-      <c r="D66" s="64"/>
+      <c r="D66" s="73"/>
       <c r="E66" s="29"/>
       <c r="F66" s="31"/>
       <c r="G66" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="36">
+      <c r="H66" s="74">
         <v>8</v>
       </c>
-      <c r="I66" s="63"/>
-      <c r="J66" s="64"/>
+      <c r="I66" s="72">
+        <v>140</v>
+      </c>
+      <c r="J66" s="73"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="36">
+      <c r="B67" s="74">
         <v>7</v>
       </c>
-      <c r="C67" s="63">
+      <c r="C67" s="72">
         <f>C48+C41+C35+C29+C23+C17+C10</f>
         <v>105</v>
       </c>
-      <c r="D67" s="64"/>
+      <c r="D67" s="73"/>
       <c r="E67" s="29"/>
       <c r="F67" s="30"/>
       <c r="G67" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="36">
+      <c r="H67" s="74">
         <v>7</v>
       </c>
-      <c r="I67" s="63"/>
-      <c r="J67" s="64"/>
+      <c r="I67" s="72">
+        <v>100</v>
+      </c>
+      <c r="J67" s="73"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -2713,7 +2977,7 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -2726,7 +2990,7 @@
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -2739,7 +3003,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2752,41 +3016,41 @@
       <c r="J71" s="18"/>
       <c r="K71" s="18"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K72" s="14"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K78" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E81" s="24"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="73"/>
+      <c r="D83" s="42"/>
       <c r="E83" s="1" t="s">
         <v>42</v>
       </c>
@@ -2801,118 +3065,178 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="38"/>
+      <c r="B84" s="74">
+        <v>8</v>
+      </c>
+      <c r="C84" s="72">
+        <v>115</v>
+      </c>
+      <c r="D84" s="73"/>
+      <c r="E84" s="35">
+        <v>145</v>
+      </c>
+      <c r="F84" s="74">
+        <v>-30</v>
+      </c>
+      <c r="G84" s="37">
+        <f>F84/C84</f>
+        <v>-0.2608695652173913</v>
+      </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="38"/>
+      <c r="B85" s="74">
+        <v>9</v>
+      </c>
+      <c r="C85" s="72">
+        <v>140</v>
+      </c>
+      <c r="D85" s="73"/>
+      <c r="E85" s="35">
+        <v>160</v>
+      </c>
+      <c r="F85" s="74">
+        <v>-20</v>
+      </c>
+      <c r="G85" s="37">
+        <f t="shared" ref="G85:G89" si="0">F85/C85</f>
+        <v>-0.14285714285714285</v>
+      </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="38"/>
+      <c r="B86" s="74">
+        <v>8</v>
+      </c>
+      <c r="C86" s="72">
+        <v>95</v>
+      </c>
+      <c r="D86" s="73"/>
+      <c r="E86" s="35">
+        <v>102</v>
+      </c>
+      <c r="F86" s="74">
+        <v>7</v>
+      </c>
+      <c r="G86" s="37">
+        <f t="shared" si="0"/>
+        <v>7.3684210526315783E-2</v>
+      </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="38"/>
+      <c r="B87" s="74">
+        <v>7</v>
+      </c>
+      <c r="C87" s="72">
+        <v>100</v>
+      </c>
+      <c r="D87" s="73"/>
+      <c r="E87" s="35">
+        <v>130</v>
+      </c>
+      <c r="F87" s="74">
+        <v>30</v>
+      </c>
+      <c r="G87" s="37">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="38"/>
+      <c r="B88" s="74">
+        <v>8</v>
+      </c>
+      <c r="C88" s="72">
+        <v>165</v>
+      </c>
+      <c r="D88" s="73"/>
+      <c r="E88" s="35">
+        <v>140</v>
+      </c>
+      <c r="F88" s="74">
+        <v>25</v>
+      </c>
+      <c r="G88" s="37">
+        <f t="shared" si="0"/>
+        <v>0.15151515151515152</v>
+      </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="38"/>
+      <c r="B89" s="74">
+        <v>7</v>
+      </c>
+      <c r="C89" s="72">
+        <v>105</v>
+      </c>
+      <c r="D89" s="73"/>
+      <c r="E89" s="36">
+        <v>100</v>
+      </c>
+      <c r="F89" s="74">
+        <v>5</v>
+      </c>
+      <c r="G89" s="37">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G90" s="75"/>
+    </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="B3:E4"/>
     <mergeCell ref="I66:J66"/>
     <mergeCell ref="I67:J67"/>
     <mergeCell ref="C66:D66"/>
@@ -2929,17 +3253,26 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
